--- a/251120_CompHuman-SpatialJCI/Output_JCI/Direction_Analysis/Direction_Analysis.xlsx
+++ b/251120_CompHuman-SpatialJCI/Output_JCI/Direction_Analysis/Direction_Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">comparison</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">majorSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggSC</t>
   </si>
 </sst>
 </file>
@@ -437,28 +440,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>57.1</v>
+        <v>58.8</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="3">
@@ -469,28 +472,28 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>57.6</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="J3" t="n">
-        <v>31.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="4">
@@ -501,28 +504,28 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>65.9</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="5">
@@ -533,25 +536,29 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5"/>
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.7</v>
+      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5"/>
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -561,28 +568,28 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>26.7</v>
+        <v>25.3</v>
       </c>
       <c r="G6" t="n">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>54.2</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="7">
@@ -593,26 +600,28 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7"/>
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.7</v>
+      </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -623,28 +632,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="9">
@@ -655,28 +664,28 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>30.7</v>
       </c>
       <c r="G9" t="n">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="H9" t="n">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="J9" t="n">
-        <v>81.6</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="10">
@@ -687,27 +696,29 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10"/>
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -717,25 +728,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>63.6</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
         <v>33.3</v>
@@ -749,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>71.4</v>
+        <v>69.2</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="J12" t="n">
-        <v>58.8</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="13">
@@ -781,26 +792,28 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13"/>
+        <v>17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37</v>
+      </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="14">
@@ -811,28 +824,28 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>65.4</v>
+        <v>61.1</v>
       </c>
       <c r="G14" t="n">
-        <v>69</v>
+        <v>416</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="I14" t="n">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="15">
@@ -843,28 +856,28 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F15" t="n">
-        <v>7.7</v>
+        <v>31.2</v>
       </c>
       <c r="G15" t="n">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="J15" t="n">
-        <v>74.2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -875,28 +888,28 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F16" t="n">
-        <v>25.3</v>
+        <v>32.4</v>
       </c>
       <c r="G16" t="n">
-        <v>209</v>
+        <v>929</v>
       </c>
       <c r="H16" t="n">
-        <v>175</v>
+        <v>585</v>
       </c>
       <c r="I16" t="n">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="J16" t="n">
-        <v>83.7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -907,28 +920,156 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>175</v>
+      </c>
+      <c r="H17" t="n">
+        <v>108</v>
+      </c>
+      <c r="I17" t="n">
+        <v>67</v>
+      </c>
+      <c r="J17" t="n">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>106</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>403</v>
+      </c>
+      <c r="H18" t="n">
+        <v>169</v>
+      </c>
+      <c r="I18" t="n">
+        <v>234</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>90</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>67</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>363</v>
+      </c>
+      <c r="H19" t="n">
+        <v>232</v>
+      </c>
+      <c r="I19" t="n">
+        <v>131</v>
+      </c>
+      <c r="J19" t="n">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>134</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" t="n">
+        <v>94</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>636</v>
+      </c>
+      <c r="H20" t="n">
+        <v>434</v>
+      </c>
+      <c r="I20" t="n">
+        <v>202</v>
+      </c>
+      <c r="J20" t="n">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>87</v>
+      </c>
+      <c r="D21" t="n">
         <v>50</v>
       </c>
-      <c r="G17" t="n">
-        <v>29</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>72.4</v>
+      <c r="E21" t="n">
+        <v>37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>307</v>
+      </c>
+      <c r="H21" t="n">
+        <v>148</v>
+      </c>
+      <c r="I21" t="n">
+        <v>159</v>
+      </c>
+      <c r="J21" t="n">
+        <v>48.2</v>
       </c>
     </row>
   </sheetData>
